--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N2">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q2">
-        <v>0.5743561458470001</v>
+        <v>0.717465887809</v>
       </c>
       <c r="R2">
-        <v>5.169205312623001</v>
+        <v>6.457192990281</v>
       </c>
       <c r="S2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="T2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>69.305324</v>
       </c>
       <c r="O3">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P3">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q3">
         <v>16.123121270036</v>
@@ -632,10 +632,10 @@
         <v>145.108091430324</v>
       </c>
       <c r="S3">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="T3">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>1.643757</v>
       </c>
       <c r="O4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q4">
         <v>0.382401984723</v>
@@ -694,10 +694,10 @@
         <v>3.441617862507</v>
       </c>
       <c r="S4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="T4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
     </row>
   </sheetData>
